--- a/FoodRecSVDTrain/kPlot.xlsx
+++ b/FoodRecSVDTrain/kPlot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="720" yWindow="645" windowWidth="19635" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="kPlot" sheetId="1" r:id="rId1"/>
@@ -598,10 +598,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kPlot!$A$1:$A$147</c:f>
+              <c:f>kPlot!$A$1:$A$143</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="143"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1030,468 +1030,444 @@
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kPlot!$B$1:$B$147</c:f>
+              <c:f>kPlot!$B$1:$B$143</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="143"/>
                 <c:pt idx="0">
-                  <c:v>0.71105786463169396</c:v>
+                  <c:v>0.81569236961247904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72510079890921497</c:v>
+                  <c:v>0.80666164936885199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67255075789118202</c:v>
+                  <c:v>0.71293423559965496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61149775502660098</c:v>
+                  <c:v>0.71808997802372299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60848519642987797</c:v>
+                  <c:v>0.66582334240128105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59096161638563005</c:v>
+                  <c:v>0.67346753346577903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55187619413563405</c:v>
+                  <c:v>0.62572140068281901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53184637325072404</c:v>
+                  <c:v>0.60299145844410695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52949086216934205</c:v>
+                  <c:v>0.58875656909873697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50942278103946503</c:v>
+                  <c:v>0.57366967392695001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.50399626903403305</c:v>
+                  <c:v>0.55265891706884196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48030245910808</c:v>
+                  <c:v>0.52586412534029803</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46166199801006902</c:v>
+                  <c:v>0.51588743302862206</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44364891292241798</c:v>
+                  <c:v>0.50738374799109098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41284278090311899</c:v>
+                  <c:v>0.48479151747931298</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41541940008600298</c:v>
+                  <c:v>0.48606858645102502</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.398150666291119</c:v>
+                  <c:v>0.44401145539404802</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.37162821163260901</c:v>
+                  <c:v>0.42637301182956899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.37224175058939801</c:v>
+                  <c:v>0.42564471226283301</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37307048235041701</c:v>
+                  <c:v>0.406547446909239</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.35635001090707003</c:v>
+                  <c:v>0.40669888403479199</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.33642084077350798</c:v>
+                  <c:v>0.37703094738142701</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.33710495517845701</c:v>
+                  <c:v>0.39048040769054299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.32458380688975302</c:v>
+                  <c:v>0.36200402854713798</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.31858627642371801</c:v>
+                  <c:v>0.36169707213112401</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.31321619151166002</c:v>
+                  <c:v>0.35411134129133798</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.29878027561762099</c:v>
+                  <c:v>0.33389642203689601</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.29737457206489898</c:v>
+                  <c:v>0.32739041417924702</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.28447394783404101</c:v>
+                  <c:v>0.317305753820537</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.27644921954643997</c:v>
+                  <c:v>0.30719489946314599</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.27674749109711599</c:v>
+                  <c:v>0.29069705447121702</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.262162246583869</c:v>
+                  <c:v>0.28808407448749201</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.24880130662708499</c:v>
+                  <c:v>0.29101423091991102</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.24598203818918099</c:v>
+                  <c:v>0.282887207708715</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.23307168004456699</c:v>
+                  <c:v>0.26106037856306402</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.235586459928327</c:v>
+                  <c:v>0.26231005594682399</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.22525102480304701</c:v>
+                  <c:v>0.25501453191652002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.21564052121885899</c:v>
+                  <c:v>0.24772636554851299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.21591434030576701</c:v>
+                  <c:v>0.240131291594191</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.20732415073737201</c:v>
+                  <c:v>0.23529516315389701</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.198768581530886</c:v>
+                  <c:v>0.23352834793885399</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.19998728162464099</c:v>
+                  <c:v>0.21789738535481301</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.19102006676684599</c:v>
+                  <c:v>0.21738330353720101</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.17833977881482299</c:v>
+                  <c:v>0.209388033155123</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.17788879056151299</c:v>
+                  <c:v>0.205915797777529</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.17503693605419501</c:v>
+                  <c:v>0.20144141760736201</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.163496357184747</c:v>
+                  <c:v>0.19643686644105501</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.161184072345467</c:v>
+                  <c:v>0.18900954994539501</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.155565715825419</c:v>
+                  <c:v>0.18388766320630801</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.153669529333606</c:v>
+                  <c:v>0.179504029179475</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.14961409652795701</c:v>
+                  <c:v>0.174007414417198</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.142784116639394</c:v>
+                  <c:v>0.16637480640302599</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.13548779781577</c:v>
+                  <c:v>0.16370043650004801</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.13473883087665001</c:v>
+                  <c:v>0.158410268059472</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.128800996759944</c:v>
+                  <c:v>0.14991054243163901</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.12418549414133701</c:v>
+                  <c:v>0.149444048892618</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.124715499742081</c:v>
+                  <c:v>0.14203288617152199</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.12072155433998701</c:v>
+                  <c:v>0.13572262462926099</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.11223734084763</c:v>
+                  <c:v>0.13210820017091399</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.105992035926328</c:v>
+                  <c:v>0.13040366372071499</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.105882266093456</c:v>
+                  <c:v>0.12669378053493399</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.101759291058934</c:v>
+                  <c:v>0.12147550116995801</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.10068094733267099</c:v>
+                  <c:v>0.116567700632353</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.8627243486599597E-2</c:v>
+                  <c:v>0.11379511152341</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.5342225080611298E-2</c:v>
+                  <c:v>0.10863853896870999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.2166801439036397E-2</c:v>
+                  <c:v>0.102367685227294</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.7466583702139306E-2</c:v>
+                  <c:v>9.7670720235912098E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.3626046958004699E-2</c:v>
+                  <c:v>9.6233072193473407E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.1492643767668599E-2</c:v>
+                  <c:v>9.4485244940206797E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.9588664446820001E-2</c:v>
+                  <c:v>9.05258763001595E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.5940337311920805E-2</c:v>
+                  <c:v>8.7917200923025698E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.1835025031085895E-2</c:v>
+                  <c:v>8.6465945088275903E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.0851686598932206E-2</c:v>
+                  <c:v>7.8856756529268698E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.0017953761320195E-2</c:v>
+                  <c:v>7.5857765785668094E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.4690520000313501E-2</c:v>
+                  <c:v>7.5210176043008004E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.2431175302818498E-2</c:v>
+                  <c:v>7.2815304587615204E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.0587169882756101E-2</c:v>
+                  <c:v>6.9476574348271897E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.9196431576387397E-2</c:v>
+                  <c:v>6.7673081784623806E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.7917103623909803E-2</c:v>
+                  <c:v>6.5742279142541798E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.5659460845797398E-2</c:v>
+                  <c:v>6.2738521869155406E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.3072376926229098E-2</c:v>
+                  <c:v>6.0439497388305397E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.1125903619736499E-2</c:v>
+                  <c:v>5.8671715802160802E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7013367514971302E-2</c:v>
+                  <c:v>5.4817007612753897E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.5679944100775603E-2</c:v>
+                  <c:v>5.3114479651266401E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.40066325201822E-2</c:v>
+                  <c:v>5.2467218365935098E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.1291912312114598E-2</c:v>
+                  <c:v>4.95446905220608E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.99722390788207E-2</c:v>
+                  <c:v>4.8794911362138399E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.8655897446965598E-2</c:v>
+                  <c:v>4.6524388034356698E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.7475321006695102E-2</c:v>
+                  <c:v>4.4614612860165902E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.5770652941081102E-2</c:v>
+                  <c:v>4.1417368691558001E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.3709220346369702E-2</c:v>
+                  <c:v>3.9858699795719398E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.2270618145977502E-2</c:v>
+                  <c:v>3.8304467668638202E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.1317718414707499E-2</c:v>
+                  <c:v>3.5473476182336101E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.0086136112238301E-2</c:v>
+                  <c:v>3.4196292085698701E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.8951677244401199E-2</c:v>
+                  <c:v>3.3518070362395E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.77819553769823E-2</c:v>
+                  <c:v>3.15091819333383E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.6985463420503002E-2</c:v>
+                  <c:v>2.9960115931097601E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.6026168046777799E-2</c:v>
+                  <c:v>2.8594836101025398E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.4921729729506899E-2</c:v>
+                  <c:v>2.76443961824312E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.42196959112242E-2</c:v>
+                  <c:v>2.6510249566591201E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.31090464198224E-2</c:v>
+                  <c:v>2.5707828029626002E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.24510202432078E-2</c:v>
+                  <c:v>2.4476125362648201E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.16651013803115E-2</c:v>
+                  <c:v>2.30557061324612E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.0994774267439099E-2</c:v>
+                  <c:v>2.17696625331847E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.01096174516497E-2</c:v>
+                  <c:v>2.0939397438554198E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.8880617994793E-2</c:v>
+                  <c:v>2.0081370736600501E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.78747713509783E-2</c:v>
+                  <c:v>1.9011868948944102E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.69122858342854E-2</c:v>
+                  <c:v>1.8282957696402501E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.6469529441893699E-2</c:v>
+                  <c:v>1.7243923157299199E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.5999940864723301E-2</c:v>
+                  <c:v>1.6593325600238299E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.5225978800572099E-2</c:v>
+                  <c:v>1.59510173881229E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.45525381662146E-2</c:v>
+                  <c:v>1.5237597158361401E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.37779497505423E-2</c:v>
+                  <c:v>1.4662207364773999E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.31127403709984E-2</c:v>
+                  <c:v>1.39605657735249E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.22024684791867E-2</c:v>
+                  <c:v>1.2625273377709601E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.14029293001817E-2</c:v>
+                  <c:v>1.1597681360417601E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.0706882931999499E-2</c:v>
+                  <c:v>1.12340868533368E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>9.9813067960865497E-3</c:v>
+                  <c:v>1.02947019964559E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>9.33068983636718E-3</c:v>
+                  <c:v>9.7408840913035394E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>8.6582290325050992E-3</c:v>
+                  <c:v>9.1482835617948399E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8.4440708506741905E-3</c:v>
+                  <c:v>8.5646561508695099E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7.9335554107207197E-3</c:v>
+                  <c:v>8.1175503754009008E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.5359346505659503E-3</c:v>
+                  <c:v>7.3883400714864602E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>7.03064042812302E-3</c:v>
+                  <c:v>6.75380431956084E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>6.5770948213708502E-3</c:v>
+                  <c:v>6.12371917656215E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>6.2150836524568999E-3</c:v>
+                  <c:v>5.5793857622041202E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5.9535598991725504E-3</c:v>
+                  <c:v>4.7246603287597602E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5.6863044218854299E-3</c:v>
+                  <c:v>3.98892023380641E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.01104292968682E-3</c:v>
+                  <c:v>3.5328964446700701E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>4.4463541176767499E-3</c:v>
+                  <c:v>2.92232547765915E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>4.0662190105232102E-3</c:v>
+                  <c:v>2.49497506454225E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.5564760796511301E-3</c:v>
+                  <c:v>1.9801115841158699E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9954334214214E-3</c:v>
+                  <c:v>1.7385326628395301E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.7436053673234001E-3</c:v>
+                  <c:v>1.5727484616869999E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.3235601178124001E-3</c:v>
+                  <c:v>1.3429853761654099E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.9909152886012599E-3</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1.74596252651346E-3</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1.55640908251593E-3</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1.3768455869965801E-3</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1.08122124341781E-3</c:v>
+                  <c:v>1.0673344509293801E-3</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="0.00E+00">
+                  <c:v>9.3075965113281398E-4</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="0.00E+00">
+                  <c:v>6.9990658632283298E-4</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="0.00E+00">
+                  <c:v>4.4118754297899201E-4</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="0.00E+00">
+                  <c:v>2.3381861074141201E-4</c:v>
                 </c:pt>
                 <c:pt idx="140" formatCode="0.00E+00">
-                  <c:v>8.8922098581825301E-4</c:v>
+                  <c:v>1.00692228266394E-4</c:v>
                 </c:pt>
                 <c:pt idx="141" formatCode="0.00E+00">
-                  <c:v>6.0934345768945105E-4</c:v>
+                  <c:v>4.2361860653732299E-5</c:v>
                 </c:pt>
                 <c:pt idx="142" formatCode="0.00E+00">
-                  <c:v>3.7300109653881901E-4</c:v>
-                </c:pt>
-                <c:pt idx="143" formatCode="0.00E+00">
-                  <c:v>2.4926324087951902E-4</c:v>
-                </c:pt>
-                <c:pt idx="144" formatCode="0.00E+00">
-                  <c:v>1.55846086876805E-4</c:v>
-                </c:pt>
-                <c:pt idx="145" formatCode="0.00E+00">
-                  <c:v>5.5167495991488897E-5</c:v>
-                </c:pt>
-                <c:pt idx="146" formatCode="0.00E+00">
-                  <c:v>1.1056728784233799E-5</c:v>
+                  <c:v>1.2024591867074899E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,11 +1482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="52359552"/>
-        <c:axId val="72569984"/>
+        <c:axId val="96111232"/>
+        <c:axId val="96109696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52359552"/>
+        <c:axId val="96111232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,12 +1515,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72569984"/>
+        <c:crossAx val="96109696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72569984"/>
+        <c:axId val="96109696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,7 +1550,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52359552"/>
+        <c:crossAx val="96111232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1913,11 +1889,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1926,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.71105786463169396</v>
+        <v>0.81569236961247904</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.72510079890921497</v>
+        <v>0.80666164936885199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.67255075789118202</v>
+        <v>0.71293423559965496</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.61149775502660098</v>
+        <v>0.71808997802372299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.60848519642987797</v>
+        <v>0.66582334240128105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.59096161638563005</v>
+        <v>0.67346753346577903</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.55187619413563405</v>
+        <v>0.62572140068281901</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.53184637325072404</v>
+        <v>0.60299145844410695</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.52949086216934205</v>
+        <v>0.58875656909873697</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.50942278103946503</v>
+        <v>0.57366967392695001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.50399626903403305</v>
+        <v>0.55265891706884196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +1988,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.48030245910808</v>
+        <v>0.52586412534029803</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +1996,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.46166199801006902</v>
+        <v>0.51588743302862206</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2030,7 +2004,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.44364891292241798</v>
+        <v>0.50738374799109098</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2038,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.41284278090311899</v>
+        <v>0.48479151747931298</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2046,7 +2020,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.41541940008600298</v>
+        <v>0.48606858645102502</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2028,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.398150666291119</v>
+        <v>0.44401145539404802</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,7 +2036,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.37162821163260901</v>
+        <v>0.42637301182956899</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,7 +2044,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.37224175058939801</v>
+        <v>0.42564471226283301</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2052,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.37307048235041701</v>
+        <v>0.406547446909239</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2086,7 +2060,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.35635001090707003</v>
+        <v>0.40669888403479199</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2068,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.33642084077350798</v>
+        <v>0.37703094738142701</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2076,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.33710495517845701</v>
+        <v>0.39048040769054299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2084,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.32458380688975302</v>
+        <v>0.36200402854713798</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2092,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.31858627642371801</v>
+        <v>0.36169707213112401</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.31321619151166002</v>
+        <v>0.35411134129133798</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,7 +2108,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.29878027561762099</v>
+        <v>0.33389642203689601</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2116,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.29737457206489898</v>
+        <v>0.32739041417924702</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2124,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.28447394783404101</v>
+        <v>0.317305753820537</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2132,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.27644921954643997</v>
+        <v>0.30719489946314599</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2140,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.27674749109711599</v>
+        <v>0.29069705447121702</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2148,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.262162246583869</v>
+        <v>0.28808407448749201</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +2156,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.24880130662708499</v>
+        <v>0.29101423091991102</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2164,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.24598203818918099</v>
+        <v>0.282887207708715</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +2172,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.23307168004456699</v>
+        <v>0.26106037856306402</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2206,7 +2180,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.235586459928327</v>
+        <v>0.26231005594682399</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +2188,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.22525102480304701</v>
+        <v>0.25501453191652002</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,7 +2196,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.21564052121885899</v>
+        <v>0.24772636554851299</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,7 +2204,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.21591434030576701</v>
+        <v>0.240131291594191</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2238,7 +2212,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.20732415073737201</v>
+        <v>0.23529516315389701</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2246,7 +2220,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.198768581530886</v>
+        <v>0.23352834793885399</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,7 +2228,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.19998728162464099</v>
+        <v>0.21789738535481301</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2262,7 +2236,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.19102006676684599</v>
+        <v>0.21738330353720101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.17833977881482299</v>
+        <v>0.209388033155123</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2278,7 +2252,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.17788879056151299</v>
+        <v>0.205915797777529</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2286,7 +2260,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.17503693605419501</v>
+        <v>0.20144141760736201</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2268,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.163496357184747</v>
+        <v>0.19643686644105501</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2302,7 +2276,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.161184072345467</v>
+        <v>0.18900954994539501</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2310,7 +2284,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.155565715825419</v>
+        <v>0.18388766320630801</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2318,7 +2292,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.153669529333606</v>
+        <v>0.179504029179475</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2300,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.14961409652795701</v>
+        <v>0.174007414417198</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2334,7 +2308,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.142784116639394</v>
+        <v>0.16637480640302599</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,7 +2316,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.13548779781577</v>
+        <v>0.16370043650004801</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,7 +2324,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.13473883087665001</v>
+        <v>0.158410268059472</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2332,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.128800996759944</v>
+        <v>0.14991054243163901</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2340,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.12418549414133701</v>
+        <v>0.149444048892618</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2348,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.124715499742081</v>
+        <v>0.14203288617152199</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2356,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.12072155433998701</v>
+        <v>0.13572262462926099</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2364,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.11223734084763</v>
+        <v>0.13210820017091399</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2372,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.105992035926328</v>
+        <v>0.13040366372071499</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2380,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.105882266093456</v>
+        <v>0.12669378053493399</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2388,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.101759291058934</v>
+        <v>0.12147550116995801</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2396,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.10068094733267099</v>
+        <v>0.116567700632353</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2404,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>9.8627243486599597E-2</v>
+        <v>0.11379511152341</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2412,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>9.5342225080611298E-2</v>
+        <v>0.10863853896870999</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2420,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>9.2166801439036397E-2</v>
+        <v>0.102367685227294</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2454,7 +2428,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>8.7466583702139306E-2</v>
+        <v>9.7670720235912098E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2436,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>8.3626046958004699E-2</v>
+        <v>9.6233072193473407E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2470,7 +2444,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>8.1492643767668599E-2</v>
+        <v>9.4485244940206797E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2452,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>7.9588664446820001E-2</v>
+        <v>9.05258763001595E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2486,7 +2460,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>7.5940337311920805E-2</v>
+        <v>8.7917200923025698E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2494,7 +2468,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>7.1835025031085895E-2</v>
+        <v>8.6465945088275903E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2502,7 +2476,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>7.0851686598932206E-2</v>
+        <v>7.8856756529268698E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2510,7 +2484,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>7.0017953761320195E-2</v>
+        <v>7.5857765785668094E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2518,7 +2492,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6.4690520000313501E-2</v>
+        <v>7.5210176043008004E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2526,7 +2500,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>6.2431175302818498E-2</v>
+        <v>7.2815304587615204E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2534,7 +2508,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>6.0587169882756101E-2</v>
+        <v>6.9476574348271897E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +2516,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>5.9196431576387397E-2</v>
+        <v>6.7673081784623806E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2550,7 +2524,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>5.7917103623909803E-2</v>
+        <v>6.5742279142541798E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2558,7 +2532,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>5.5659460845797398E-2</v>
+        <v>6.2738521869155406E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2566,7 +2540,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>5.3072376926229098E-2</v>
+        <v>6.0439497388305397E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,7 +2548,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>5.1125903619736499E-2</v>
+        <v>5.8671715802160802E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2582,7 +2556,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>4.7013367514971302E-2</v>
+        <v>5.4817007612753897E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2590,7 +2564,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>4.5679944100775603E-2</v>
+        <v>5.3114479651266401E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2598,7 +2572,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>4.40066325201822E-2</v>
+        <v>5.2467218365935098E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2606,7 +2580,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>4.1291912312114598E-2</v>
+        <v>4.95446905220608E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +2588,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>3.99722390788207E-2</v>
+        <v>4.8794911362138399E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +2596,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>3.8655897446965598E-2</v>
+        <v>4.6524388034356698E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2604,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>3.7475321006695102E-2</v>
+        <v>4.4614612860165902E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2612,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3.5770652941081102E-2</v>
+        <v>4.1417368691558001E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2646,7 +2620,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>3.3709220346369702E-2</v>
+        <v>3.9858699795719398E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2628,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>3.2270618145977502E-2</v>
+        <v>3.8304467668638202E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,7 +2636,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>3.1317718414707499E-2</v>
+        <v>3.5473476182336101E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2644,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>3.0086136112238301E-2</v>
+        <v>3.4196292085698701E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,7 +2652,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>2.8951677244401199E-2</v>
+        <v>3.3518070362395E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +2660,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>2.77819553769823E-2</v>
+        <v>3.15091819333383E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +2668,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>2.6985463420503002E-2</v>
+        <v>2.9960115931097601E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2676,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>2.6026168046777799E-2</v>
+        <v>2.8594836101025398E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2684,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>2.4921729729506899E-2</v>
+        <v>2.76443961824312E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +2692,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>2.42196959112242E-2</v>
+        <v>2.6510249566591201E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2700,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>2.31090464198224E-2</v>
+        <v>2.5707828029626002E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2708,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>2.24510202432078E-2</v>
+        <v>2.4476125362648201E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2716,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>2.16651013803115E-2</v>
+        <v>2.30557061324612E-2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2724,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>2.0994774267439099E-2</v>
+        <v>2.17696625331847E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2732,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>2.01096174516497E-2</v>
+        <v>2.0939397438554198E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,7 +2740,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>1.8880617994793E-2</v>
+        <v>2.0081370736600501E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,7 +2748,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>1.78747713509783E-2</v>
+        <v>1.9011868948944102E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +2756,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>1.69122858342854E-2</v>
+        <v>1.8282957696402501E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +2764,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>1.6469529441893699E-2</v>
+        <v>1.7243923157299199E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2772,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>1.5999940864723301E-2</v>
+        <v>1.6593325600238299E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2806,7 +2780,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>1.5225978800572099E-2</v>
+        <v>1.59510173881229E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +2788,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>1.45525381662146E-2</v>
+        <v>1.5237597158361401E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,7 +2796,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>1.37779497505423E-2</v>
+        <v>1.4662207364773999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2804,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1.31127403709984E-2</v>
+        <v>1.39605657735249E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,7 +2812,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>1.22024684791867E-2</v>
+        <v>1.2625273377709601E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2846,7 +2820,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>1.14029293001817E-2</v>
+        <v>1.1597681360417601E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,7 +2828,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>1.0706882931999499E-2</v>
+        <v>1.12340868533368E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2862,7 +2836,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>9.9813067960865497E-3</v>
+        <v>1.02947019964559E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2870,7 +2844,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>9.33068983636718E-3</v>
+        <v>9.7408840913035394E-3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2878,7 +2852,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>8.6582290325050992E-3</v>
+        <v>9.1482835617948399E-3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,7 +2860,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>8.4440708506741905E-3</v>
+        <v>8.5646561508695099E-3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +2868,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>7.9335554107207197E-3</v>
+        <v>8.1175503754009008E-3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2876,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>7.5359346505659503E-3</v>
+        <v>7.3883400714864602E-3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +2884,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>7.03064042812302E-3</v>
+        <v>6.75380431956084E-3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,7 +2892,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>6.5770948213708502E-3</v>
+        <v>6.12371917656215E-3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2926,7 +2900,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>6.2150836524568999E-3</v>
+        <v>5.5793857622041202E-3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2934,7 +2908,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>5.9535598991725504E-3</v>
+        <v>4.7246603287597602E-3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +2916,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>5.6863044218854299E-3</v>
+        <v>3.98892023380641E-3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2950,7 +2924,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>5.01104292968682E-3</v>
+        <v>3.5328964446700701E-3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +2932,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>4.4463541176767499E-3</v>
+        <v>2.92232547765915E-3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2966,7 +2940,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>4.0662190105232102E-3</v>
+        <v>2.49497506454225E-3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2948,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>3.5564760796511301E-3</v>
+        <v>1.9801115841158699E-3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,7 +2956,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>2.9954334214214E-3</v>
+        <v>1.7385326628395301E-3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,7 +2964,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>2.7436053673234001E-3</v>
+        <v>1.5727484616869999E-3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,7 +2972,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>2.3235601178124001E-3</v>
+        <v>1.3429853761654099E-3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3006,39 +2980,39 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>1.9909152886012599E-3</v>
+        <v>1.0673344509293801E-3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>137</v>
       </c>
-      <c r="B137">
-        <v>1.74596252651346E-3</v>
+      <c r="B137" s="1">
+        <v>9.3075965113281398E-4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>138</v>
       </c>
-      <c r="B138">
-        <v>1.55640908251593E-3</v>
+      <c r="B138" s="1">
+        <v>6.9990658632283298E-4</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>139</v>
       </c>
-      <c r="B139">
-        <v>1.3768455869965801E-3</v>
+      <c r="B139" s="1">
+        <v>4.4118754297899201E-4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>140</v>
       </c>
-      <c r="B140">
-        <v>1.08122124341781E-3</v>
+      <c r="B140" s="1">
+        <v>2.3381861074141201E-4</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3046,7 +3020,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="1">
-        <v>8.8922098581825301E-4</v>
+        <v>1.00692228266394E-4</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3054,7 +3028,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="1">
-        <v>6.0934345768945105E-4</v>
+        <v>4.2361860653732299E-5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3062,39 +3036,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="1">
-        <v>3.7300109653881901E-4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>144</v>
-      </c>
-      <c r="B144" s="1">
-        <v>2.4926324087951902E-4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>145</v>
-      </c>
-      <c r="B145" s="1">
-        <v>1.55846086876805E-4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>146</v>
-      </c>
-      <c r="B146" s="1">
-        <v>5.5167495991488897E-5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>147</v>
-      </c>
-      <c r="B147" s="1">
-        <v>1.1056728784233799E-5</v>
+        <v>1.2024591867074899E-5</v>
       </c>
     </row>
   </sheetData>

--- a/FoodRecSVDTrain/kPlot.xlsx
+++ b/FoodRecSVDTrain/kPlot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="645" windowWidth="19635" windowHeight="7425"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="kPlot" sheetId="1" r:id="rId1"/>
@@ -598,10 +598,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kPlot!$A$1:$A$143</c:f>
+              <c:f>kPlot!$A$1:$A$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="143"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1030,444 +1030,1128 @@
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kPlot!$B$1:$B$143</c:f>
+              <c:f>kPlot!$B$1:$B$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="143"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
-                  <c:v>0.81569236961247904</c:v>
+                  <c:v>0.99685487708475495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80666164936885199</c:v>
+                  <c:v>0.938863683754247</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71293423559965496</c:v>
+                  <c:v>0.91235953186658303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71808997802372299</c:v>
+                  <c:v>0.89199726403305302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66582334240128105</c:v>
+                  <c:v>0.87081668767860299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67346753346577903</c:v>
+                  <c:v>0.87524782187318895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62572140068281901</c:v>
+                  <c:v>0.75605421345354096</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60299145844410695</c:v>
+                  <c:v>0.76678440157890304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58875656909873697</c:v>
+                  <c:v>0.72913012346829098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57366967392695001</c:v>
+                  <c:v>0.73777789648662795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55265891706884196</c:v>
+                  <c:v>0.73468888803494203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52586412534029803</c:v>
+                  <c:v>0.68043303009576295</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51588743302862206</c:v>
+                  <c:v>0.67839115477115497</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50738374799109098</c:v>
+                  <c:v>0.66139289524057099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48479151747931298</c:v>
+                  <c:v>0.65746327623352196</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48606858645102502</c:v>
+                  <c:v>0.62568145075206505</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.44401145539404802</c:v>
+                  <c:v>0.61050270608736501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.42637301182956899</c:v>
+                  <c:v>0.60519897969647996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.42564471226283301</c:v>
+                  <c:v>0.58471807182150803</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.406547446909239</c:v>
+                  <c:v>0.565928541875237</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40669888403479199</c:v>
+                  <c:v>0.55400086916680702</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.37703094738142701</c:v>
+                  <c:v>0.53246087899419303</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.39048040769054299</c:v>
+                  <c:v>0.52540772994273099</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.36200402854713798</c:v>
+                  <c:v>0.53241167334531203</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.36169707213112401</c:v>
+                  <c:v>0.51129756279971805</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.35411134129133798</c:v>
+                  <c:v>0.50168226198857502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.33389642203689601</c:v>
+                  <c:v>0.48619026570643997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.32739041417924702</c:v>
+                  <c:v>0.48528677113110402</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.317305753820537</c:v>
+                  <c:v>0.47724377784222199</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30719489946314599</c:v>
+                  <c:v>0.46646028328573402</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.29069705447121702</c:v>
+                  <c:v>0.44947670162282199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.28808407448749201</c:v>
+                  <c:v>0.44254234321360603</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.29101423091991102</c:v>
+                  <c:v>0.42710022533076097</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.282887207708715</c:v>
+                  <c:v>0.423428839979686</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.26106037856306402</c:v>
+                  <c:v>0.41682177506981499</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.26231005594682399</c:v>
+                  <c:v>0.41030800874518403</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25501453191652002</c:v>
+                  <c:v>0.405638172345124</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24772636554851299</c:v>
+                  <c:v>0.38756332000709898</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.240131291594191</c:v>
+                  <c:v>0.37884528433713599</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.23529516315389701</c:v>
+                  <c:v>0.37354960825036898</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.23352834793885399</c:v>
+                  <c:v>0.36389679437426797</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.21789738535481301</c:v>
+                  <c:v>0.35912453092236502</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.21738330353720101</c:v>
+                  <c:v>0.35321822183453799</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.209388033155123</c:v>
+                  <c:v>0.345250956149382</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.205915797777529</c:v>
+                  <c:v>0.33516741654847998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.20144141760736201</c:v>
+                  <c:v>0.33302360505558898</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.19643686644105501</c:v>
+                  <c:v>0.323242787092965</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.18900954994539501</c:v>
+                  <c:v>0.31564172695584403</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.18388766320630801</c:v>
+                  <c:v>0.31901571870498402</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.179504029179475</c:v>
+                  <c:v>0.305924302217354</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.174007414417198</c:v>
+                  <c:v>0.30483022982650898</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.16637480640302599</c:v>
+                  <c:v>0.29436540831288599</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.16370043650004801</c:v>
+                  <c:v>0.28943272258888098</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.158410268059472</c:v>
+                  <c:v>0.28289410944565502</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.14991054243163901</c:v>
+                  <c:v>0.27868024680119902</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.149444048892618</c:v>
+                  <c:v>0.27506777248156</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.14203288617152199</c:v>
+                  <c:v>0.26324596867793298</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.13572262462926099</c:v>
+                  <c:v>0.262723069777753</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.13210820017091399</c:v>
+                  <c:v>0.26075721390322998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.13040366372071499</c:v>
+                  <c:v>0.25471449079432101</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.12669378053493399</c:v>
+                  <c:v>0.25281327157235001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.12147550116995801</c:v>
+                  <c:v>0.24818302000277401</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.116567700632353</c:v>
+                  <c:v>0.23827445241727899</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.11379511152341</c:v>
+                  <c:v>0.23126823238823699</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.10863853896870999</c:v>
+                  <c:v>0.23055413443446399</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.102367685227294</c:v>
+                  <c:v>0.22803389440975599</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.7670720235912098E-2</c:v>
+                  <c:v>0.22436341118404601</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.6233072193473407E-2</c:v>
+                  <c:v>0.21634366689215601</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.4485244940206797E-2</c:v>
+                  <c:v>0.215278715759738</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.05258763001595E-2</c:v>
+                  <c:v>0.21434649689389201</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.7917200923025698E-2</c:v>
+                  <c:v>0.21038078167961399</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.6465945088275903E-2</c:v>
+                  <c:v>0.207350475827837</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.8856756529268698E-2</c:v>
+                  <c:v>0.198094714532976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.5857765785668094E-2</c:v>
+                  <c:v>0.197148354780495</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.5210176043008004E-2</c:v>
+                  <c:v>0.18959758681773101</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.2815304587615204E-2</c:v>
+                  <c:v>0.18665305469357099</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.9476574348271897E-2</c:v>
+                  <c:v>0.18508894823427899</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.7673081784623806E-2</c:v>
+                  <c:v>0.17962069128955199</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.5742279142541798E-2</c:v>
+                  <c:v>0.17528547725409199</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.2738521869155406E-2</c:v>
+                  <c:v>0.17171819175091299</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.0439497388305397E-2</c:v>
+                  <c:v>0.17057474739301301</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.8671715802160802E-2</c:v>
+                  <c:v>0.16460472002426399</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.4817007612753897E-2</c:v>
+                  <c:v>0.16220099504441199</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.3114479651266401E-2</c:v>
+                  <c:v>0.15975502602953301</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.2467218365935098E-2</c:v>
+                  <c:v>0.15609235382813499</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.95446905220608E-2</c:v>
+                  <c:v>0.155875661032923</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.8794911362138399E-2</c:v>
+                  <c:v>0.15407340729732</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.6524388034356698E-2</c:v>
+                  <c:v>0.14862896592042499</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.4614612860165902E-2</c:v>
+                  <c:v>0.14414138749279801</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.1417368691558001E-2</c:v>
+                  <c:v>0.142985275805282</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.9858699795719398E-2</c:v>
+                  <c:v>0.14154310115974</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.8304467668638202E-2</c:v>
+                  <c:v>0.13800112696457101</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.5473476182336101E-2</c:v>
+                  <c:v>0.134994413650494</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.4196292085698701E-2</c:v>
+                  <c:v>0.13212569431226401</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.3518070362395E-2</c:v>
+                  <c:v>0.13014148913316401</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.15091819333383E-2</c:v>
+                  <c:v>0.12942240196746199</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.9960115931097601E-2</c:v>
+                  <c:v>0.124410274573007</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.8594836101025398E-2</c:v>
+                  <c:v>0.122159423222191</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.76443961824312E-2</c:v>
+                  <c:v>0.12177759006453</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.6510249566591201E-2</c:v>
+                  <c:v>0.116663413591404</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.5707828029626002E-2</c:v>
+                  <c:v>0.115087270219493</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.4476125362648201E-2</c:v>
+                  <c:v>0.11302904485149499</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.30557061324612E-2</c:v>
+                  <c:v>0.109224891631428</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.17696625331847E-2</c:v>
+                  <c:v>0.107284624412532</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.0939397438554198E-2</c:v>
+                  <c:v>0.105494224433688</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.0081370736600501E-2</c:v>
+                  <c:v>0.10366862814664</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.9011868948944102E-2</c:v>
+                  <c:v>0.101667394204835</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.8282957696402501E-2</c:v>
+                  <c:v>9.9978233144744202E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.7243923157299199E-2</c:v>
+                  <c:v>9.9933948529182498E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.6593325600238299E-2</c:v>
+                  <c:v>9.6839491649809595E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.59510173881229E-2</c:v>
+                  <c:v>9.5242729620529806E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.5237597158361401E-2</c:v>
+                  <c:v>9.3347743747424605E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.4662207364773999E-2</c:v>
+                  <c:v>9.1695283409069295E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.39605657735249E-2</c:v>
+                  <c:v>9.0155463029326394E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.2625273377709601E-2</c:v>
+                  <c:v>8.7539856936250202E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1597681360417601E-2</c:v>
+                  <c:v>8.5375662675271996E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.12340868533368E-2</c:v>
+                  <c:v>8.43357742584291E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.02947019964559E-2</c:v>
+                  <c:v>8.0888376626408104E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>9.7408840913035394E-3</c:v>
+                  <c:v>7.9410812347222498E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>9.1482835617948399E-3</c:v>
+                  <c:v>7.81746922885065E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8.5646561508695099E-3</c:v>
+                  <c:v>7.5895681491885095E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>8.1175503754009008E-3</c:v>
+                  <c:v>7.5029266780476306E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.3883400714864602E-3</c:v>
+                  <c:v>7.5845619371537595E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>6.75380431956084E-3</c:v>
+                  <c:v>7.2166784040105694E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>6.12371917656215E-3</c:v>
+                  <c:v>7.0981604761209793E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5.5793857622041202E-3</c:v>
+                  <c:v>6.7744461560449304E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4.7246603287597602E-3</c:v>
+                  <c:v>6.7059496777930702E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.98892023380641E-3</c:v>
+                  <c:v>6.5468107113662299E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.5328964446700701E-3</c:v>
+                  <c:v>6.3793859834797795E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.92232547765915E-3</c:v>
+                  <c:v>6.2375775171640002E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.49497506454225E-3</c:v>
+                  <c:v>6.0904653085152097E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.9801115841158699E-3</c:v>
+                  <c:v>6.00704186520006E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.7385326628395301E-3</c:v>
+                  <c:v>5.9927452531649703E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.5727484616869999E-3</c:v>
+                  <c:v>5.8079264248536697E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.3429853761654099E-3</c:v>
+                  <c:v>5.65910021387439E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.0673344509293801E-3</c:v>
-                </c:pt>
-                <c:pt idx="136" formatCode="0.00E+00">
-                  <c:v>9.3075965113281398E-4</c:v>
-                </c:pt>
-                <c:pt idx="137" formatCode="0.00E+00">
-                  <c:v>6.9990658632283298E-4</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="0.00E+00">
-                  <c:v>4.4118754297899201E-4</c:v>
-                </c:pt>
-                <c:pt idx="139" formatCode="0.00E+00">
-                  <c:v>2.3381861074141201E-4</c:v>
-                </c:pt>
-                <c:pt idx="140" formatCode="0.00E+00">
-                  <c:v>1.00692228266394E-4</c:v>
-                </c:pt>
-                <c:pt idx="141" formatCode="0.00E+00">
-                  <c:v>4.2361860653732299E-5</c:v>
-                </c:pt>
-                <c:pt idx="142" formatCode="0.00E+00">
-                  <c:v>1.2024591867074899E-5</c:v>
+                  <c:v>5.5031929194482902E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.4181784999212397E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.4308092010577798E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.2639589594511801E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.1227387908393901E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.9052816531736397E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.81106550578266E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.7218166739045699E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.4840315048002802E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.4185744370234502E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.3269565397080503E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.1701541874686499E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.1018026431921699E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.02635436348606E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.9204267714993898E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.8100428311403201E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.6404846248114998E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.6040287878364601E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.4742291936079903E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.4135910201537799E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.2806223328824803E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.2013329654422502E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.1423054797667299E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.03206342969316E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.9329051384258301E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.89738422431579E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.7854041381169599E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.7392479106012699E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.63598134633658E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.5722619407944999E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.4883138877659101E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.4385800479047901E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.33446602290097E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.3415546943154099E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.1980545371999699E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.1011257281297799E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.09757443927082E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.03359047718564E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.98792090386684E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.9218000401706199E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.8347989237542401E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.7903704148023499E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.6886654411302601E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.6395876196883999E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.5592685912409501E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.50853035476888E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.4559014679315601E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.3818945578292999E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.32487932705781E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.26087079141104E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.21571872260579E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.1699532822878901E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.11458024128881E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.0831273173761599E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.04836828510213E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.0002763908099699E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.5446494445116103E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.2087996418636006E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8.8769486142987308E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.7831005051856297E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>8.19950157698408E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>8.1321036153668407E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.5715277029512196E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7.4288701637007003E-3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.1360154618933403E-3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>6.8521201112060198E-3</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6.5254348454705001E-3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6.3224954647467298E-3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6.1178238353623302E-3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5.7279613221757801E-3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5.38199458940834E-3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5.0767610896277201E-3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.9640522727656599E-3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.7521532515681399E-3</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.5884431381848396E-3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.3652125531478299E-3</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.2127315801958999E-3</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.1101090684787399E-3</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.9126450145569999E-3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.5935814732600802E-3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.4147226628090999E-3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.2642734936007499E-3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.0715829766655698E-3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.8327118944623101E-3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.6560157753650602E-3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.5032856227103798E-3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.3646397884751901E-3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.2835302290466599E-3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.0349065813997E-3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.8944111102177699E-3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.76746246159545E-3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.60737981542192E-3</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.49911186978213E-3</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.3305420200259801E-3</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.2362205505540599E-3</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.1478756074323701E-3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.08478406495294E-3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.0127239214770801E-3</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="0.00E+00">
+                  <c:v>9.1287552927434999E-4</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="0.00E+00">
+                  <c:v>8.1406311883807595E-4</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="0.00E+00">
+                  <c:v>7.2568235350348404E-4</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="0.00E+00">
+                  <c:v>6.6571715593345595E-4</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="0.00E+00">
+                  <c:v>6.1425264669990004E-4</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="0.00E+00">
+                  <c:v>5.5059364706942998E-4</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="0.00E+00">
+                  <c:v>4.91178751675945E-4</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="0.00E+00">
+                  <c:v>4.2072711721781599E-4</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="0.00E+00">
+                  <c:v>3.67735569127319E-4</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="0.00E+00">
+                  <c:v>3.3596830481841402E-4</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="0.00E+00">
+                  <c:v>3.0510021355878702E-4</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="0.00E+00">
+                  <c:v>2.7346247290092798E-4</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="0.00E+00">
+                  <c:v>2.4057270664870601E-4</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="0.00E+00">
+                  <c:v>2.1028744437775001E-4</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="0.00E+00">
+                  <c:v>1.7148292503842301E-4</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="0.00E+00">
+                  <c:v>1.3674840644325401E-4</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="0.00E+00">
+                  <c:v>1.0943659619057599E-4</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="0.00E+00">
+                  <c:v>7.6747657927346002E-5</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="0.00E+00">
+                  <c:v>5.2746213346769497E-5</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="0.00E+00">
+                  <c:v>4.2689773039588597E-5</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="0.00E+00">
+                  <c:v>2.5965726412375699E-5</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="0.00E+00">
+                  <c:v>1.04296049138161E-5</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="0.00E+00">
+                  <c:v>3.6965093720583701E-6</c:v>
+                </c:pt>
+                <c:pt idx="256" formatCode="0.00E+00">
+                  <c:v>7.1256263056209099E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,11 +2166,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96111232"/>
-        <c:axId val="96109696"/>
+        <c:axId val="125093760"/>
+        <c:axId val="125056512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96111232"/>
+        <c:axId val="125093760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,12 +2199,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96109696"/>
+        <c:crossAx val="125056512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96109696"/>
+        <c:axId val="125056512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +2234,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96111232"/>
+        <c:crossAx val="125093760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1584,7 +2268,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1889,7 +2573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1900,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.81569236961247904</v>
+        <v>0.99685487708475495</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.80666164936885199</v>
+        <v>0.938863683754247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.71293423559965496</v>
+        <v>0.91235953186658303</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +2608,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.71808997802372299</v>
+        <v>0.89199726403305302</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.66582334240128105</v>
+        <v>0.87081668767860299</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1940,7 +2624,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.67346753346577903</v>
+        <v>0.87524782187318895</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.62572140068281901</v>
+        <v>0.75605421345354096</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,7 +2640,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.60299145844410695</v>
+        <v>0.76678440157890304</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,7 +2648,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.58875656909873697</v>
+        <v>0.72913012346829098</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1972,7 +2656,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.57366967392695001</v>
+        <v>0.73777789648662795</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.55265891706884196</v>
+        <v>0.73468888803494203</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,7 +2672,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.52586412534029803</v>
+        <v>0.68043303009576295</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,7 +2680,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.51588743302862206</v>
+        <v>0.67839115477115497</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2688,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.50738374799109098</v>
+        <v>0.66139289524057099</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,7 +2696,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.48479151747931298</v>
+        <v>0.65746327623352196</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2020,7 +2704,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.48606858645102502</v>
+        <v>0.62568145075206505</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.44401145539404802</v>
+        <v>0.61050270608736501</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.42637301182956899</v>
+        <v>0.60519897969647996</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,7 +2728,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.42564471226283301</v>
+        <v>0.58471807182150803</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.406547446909239</v>
+        <v>0.565928541875237</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +2744,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.40669888403479199</v>
+        <v>0.55400086916680702</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2068,7 +2752,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.37703094738142701</v>
+        <v>0.53246087899419303</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2076,7 +2760,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.39048040769054299</v>
+        <v>0.52540772994273099</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,7 +2768,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.36200402854713798</v>
+        <v>0.53241167334531203</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2092,7 +2776,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.36169707213112401</v>
+        <v>0.51129756279971805</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2100,7 +2784,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.35411134129133798</v>
+        <v>0.50168226198857502</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2108,7 +2792,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.33389642203689601</v>
+        <v>0.48619026570643997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2116,7 +2800,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.32739041417924702</v>
+        <v>0.48528677113110402</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2124,7 +2808,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.317305753820537</v>
+        <v>0.47724377784222199</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.30719489946314599</v>
+        <v>0.46646028328573402</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,7 +2824,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.29069705447121702</v>
+        <v>0.44947670162282199</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,7 +2832,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.28808407448749201</v>
+        <v>0.44254234321360603</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2156,7 +2840,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.29101423091991102</v>
+        <v>0.42710022533076097</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2164,7 +2848,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.282887207708715</v>
+        <v>0.423428839979686</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2172,7 +2856,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.26106037856306402</v>
+        <v>0.41682177506981499</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2180,7 +2864,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.26231005594682399</v>
+        <v>0.41030800874518403</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2872,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.25501453191652002</v>
+        <v>0.405638172345124</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2880,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.24772636554851299</v>
+        <v>0.38756332000709898</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +2888,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.240131291594191</v>
+        <v>0.37884528433713599</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2896,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.23529516315389701</v>
+        <v>0.37354960825036898</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2904,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.23352834793885399</v>
+        <v>0.36389679437426797</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2912,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.21789738535481301</v>
+        <v>0.35912453092236502</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2920,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.21738330353720101</v>
+        <v>0.35321822183453799</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2928,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.209388033155123</v>
+        <v>0.345250956149382</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2936,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.205915797777529</v>
+        <v>0.33516741654847998</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2944,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.20144141760736201</v>
+        <v>0.33302360505558898</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2952,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.19643686644105501</v>
+        <v>0.323242787092965</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2960,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.18900954994539501</v>
+        <v>0.31564172695584403</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,7 +2968,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.18388766320630801</v>
+        <v>0.31901571870498402</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2976,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.179504029179475</v>
+        <v>0.305924302217354</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2984,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.174007414417198</v>
+        <v>0.30483022982650898</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2992,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.16637480640302599</v>
+        <v>0.29436540831288599</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +3000,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.16370043650004801</v>
+        <v>0.28943272258888098</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +3008,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.158410268059472</v>
+        <v>0.28289410944565502</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +3016,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.14991054243163901</v>
+        <v>0.27868024680119902</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +3024,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.149444048892618</v>
+        <v>0.27506777248156</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,7 +3032,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.14203288617152199</v>
+        <v>0.26324596867793298</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +3040,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.13572262462926099</v>
+        <v>0.262723069777753</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2364,7 +3048,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.13210820017091399</v>
+        <v>0.26075721390322998</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +3056,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.13040366372071499</v>
+        <v>0.25471449079432101</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +3064,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.12669378053493399</v>
+        <v>0.25281327157235001</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2388,7 +3072,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.12147550116995801</v>
+        <v>0.24818302000277401</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +3080,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.116567700632353</v>
+        <v>0.23827445241727899</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +3088,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.11379511152341</v>
+        <v>0.23126823238823699</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +3096,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.10863853896870999</v>
+        <v>0.23055413443446399</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2420,7 +3104,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.102367685227294</v>
+        <v>0.22803389440975599</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2428,7 +3112,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>9.7670720235912098E-2</v>
+        <v>0.22436341118404601</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +3120,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>9.6233072193473407E-2</v>
+        <v>0.21634366689215601</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +3128,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>9.4485244940206797E-2</v>
+        <v>0.215278715759738</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +3136,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>9.05258763001595E-2</v>
+        <v>0.21434649689389201</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +3144,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>8.7917200923025698E-2</v>
+        <v>0.21038078167961399</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,7 +3152,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>8.6465945088275903E-2</v>
+        <v>0.207350475827837</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2476,7 +3160,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>7.8856756529268698E-2</v>
+        <v>0.198094714532976</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,7 +3168,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>7.5857765785668094E-2</v>
+        <v>0.197148354780495</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2492,7 +3176,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>7.5210176043008004E-2</v>
+        <v>0.18959758681773101</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,7 +3184,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>7.2815304587615204E-2</v>
+        <v>0.18665305469357099</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2508,7 +3192,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>6.9476574348271897E-2</v>
+        <v>0.18508894823427899</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +3200,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>6.7673081784623806E-2</v>
+        <v>0.17962069128955199</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +3208,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>6.5742279142541798E-2</v>
+        <v>0.17528547725409199</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +3216,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>6.2738521869155406E-2</v>
+        <v>0.17171819175091299</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +3224,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>6.0439497388305397E-2</v>
+        <v>0.17057474739301301</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +3232,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>5.8671715802160802E-2</v>
+        <v>0.16460472002426399</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2556,7 +3240,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>5.4817007612753897E-2</v>
+        <v>0.16220099504441199</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +3248,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>5.3114479651266401E-2</v>
+        <v>0.15975502602953301</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2572,7 +3256,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>5.2467218365935098E-2</v>
+        <v>0.15609235382813499</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +3264,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>4.95446905220608E-2</v>
+        <v>0.155875661032923</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +3272,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>4.8794911362138399E-2</v>
+        <v>0.15407340729732</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +3280,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>4.6524388034356698E-2</v>
+        <v>0.14862896592042499</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2604,7 +3288,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>4.4614612860165902E-2</v>
+        <v>0.14414138749279801</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,7 +3296,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>4.1417368691558001E-2</v>
+        <v>0.142985275805282</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +3304,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>3.9858699795719398E-2</v>
+        <v>0.14154310115974</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2628,7 +3312,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>3.8304467668638202E-2</v>
+        <v>0.13800112696457101</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2636,7 +3320,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>3.5473476182336101E-2</v>
+        <v>0.134994413650494</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,7 +3328,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>3.4196292085698701E-2</v>
+        <v>0.13212569431226401</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2652,7 +3336,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>3.3518070362395E-2</v>
+        <v>0.13014148913316401</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +3344,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>3.15091819333383E-2</v>
+        <v>0.12942240196746199</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2668,7 +3352,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>2.9960115931097601E-2</v>
+        <v>0.124410274573007</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +3360,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>2.8594836101025398E-2</v>
+        <v>0.122159423222191</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +3368,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>2.76443961824312E-2</v>
+        <v>0.12177759006453</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>2.6510249566591201E-2</v>
+        <v>0.116663413591404</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +3384,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>2.5707828029626002E-2</v>
+        <v>0.115087270219493</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +3392,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>2.4476125362648201E-2</v>
+        <v>0.11302904485149499</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +3400,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>2.30557061324612E-2</v>
+        <v>0.109224891631428</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +3408,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>2.17696625331847E-2</v>
+        <v>0.107284624412532</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +3416,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>2.0939397438554198E-2</v>
+        <v>0.105494224433688</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +3424,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>2.0081370736600501E-2</v>
+        <v>0.10366862814664</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +3432,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>1.9011868948944102E-2</v>
+        <v>0.101667394204835</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +3440,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>1.8282957696402501E-2</v>
+        <v>9.9978233144744202E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +3448,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>1.7243923157299199E-2</v>
+        <v>9.9933948529182498E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +3456,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>1.6593325600238299E-2</v>
+        <v>9.6839491649809595E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2780,7 +3464,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>1.59510173881229E-2</v>
+        <v>9.5242729620529806E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +3472,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>1.5237597158361401E-2</v>
+        <v>9.3347743747424605E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,7 +3480,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>1.4662207364773999E-2</v>
+        <v>9.1695283409069295E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +3488,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1.39605657735249E-2</v>
+        <v>9.0155463029326394E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +3496,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>1.2625273377709601E-2</v>
+        <v>8.7539856936250202E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +3504,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>1.1597681360417601E-2</v>
+        <v>8.5375662675271996E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +3512,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>1.12340868533368E-2</v>
+        <v>8.43357742584291E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2836,7 +3520,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>1.02947019964559E-2</v>
+        <v>8.0888376626408104E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +3528,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>9.7408840913035394E-3</v>
+        <v>7.9410812347222498E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +3536,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>9.1482835617948399E-3</v>
+        <v>7.81746922885065E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,7 +3544,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>8.5646561508695099E-3</v>
+        <v>7.5895681491885095E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +3552,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>8.1175503754009008E-3</v>
+        <v>7.5029266780476306E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,7 +3560,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>7.3883400714864602E-3</v>
+        <v>7.5845619371537595E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +3568,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>6.75380431956084E-3</v>
+        <v>7.2166784040105694E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +3576,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>6.12371917656215E-3</v>
+        <v>7.0981604761209793E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +3584,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>5.5793857622041202E-3</v>
+        <v>6.7744461560449304E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +3592,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>4.7246603287597602E-3</v>
+        <v>6.7059496777930702E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +3600,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>3.98892023380641E-3</v>
+        <v>6.5468107113662299E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +3608,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>3.5328964446700701E-3</v>
+        <v>6.3793859834797795E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +3616,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>2.92232547765915E-3</v>
+        <v>6.2375775171640002E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +3624,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>2.49497506454225E-3</v>
+        <v>6.0904653085152097E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +3632,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>1.9801115841158699E-3</v>
+        <v>6.00704186520006E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +3640,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>1.7385326628395301E-3</v>
+        <v>5.9927452531649703E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +3648,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>1.5727484616869999E-3</v>
+        <v>5.8079264248536697E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +3656,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>1.3429853761654099E-3</v>
+        <v>5.65910021387439E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,63 +3664,975 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>1.0673344509293801E-3</v>
+        <v>5.5031929194482902E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>137</v>
       </c>
-      <c r="B137" s="1">
-        <v>9.3075965113281398E-4</v>
+      <c r="B137">
+        <v>5.4181784999212397E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>138</v>
       </c>
-      <c r="B138" s="1">
-        <v>6.9990658632283298E-4</v>
+      <c r="B138">
+        <v>5.4308092010577798E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>139</v>
       </c>
-      <c r="B139" s="1">
-        <v>4.4118754297899201E-4</v>
+      <c r="B139">
+        <v>5.2639589594511801E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>140</v>
       </c>
-      <c r="B140" s="1">
-        <v>2.3381861074141201E-4</v>
+      <c r="B140">
+        <v>5.1227387908393901E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>141</v>
       </c>
-      <c r="B141" s="1">
-        <v>1.00692228266394E-4</v>
+      <c r="B141">
+        <v>4.9052816531736397E-2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>142</v>
       </c>
-      <c r="B142" s="1">
-        <v>4.2361860653732299E-5</v>
+      <c r="B142">
+        <v>4.81106550578266E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>143</v>
       </c>
-      <c r="B143" s="1">
-        <v>1.2024591867074899E-5</v>
+      <c r="B143">
+        <v>4.7218166739045699E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>4.4840315048002802E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>4.4185744370234502E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>4.3269565397080503E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>4.1701541874686499E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>4.1018026431921699E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>4.02635436348606E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>3.9204267714993898E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>3.8100428311403201E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>3.6404846248114998E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>3.6040287878364601E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>3.4742291936079903E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>3.4135910201537799E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>3.2806223328824803E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>3.2013329654422502E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>3.1423054797667299E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>3.03206342969316E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>2.9329051384258301E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>2.89738422431579E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>2.7854041381169599E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>2.7392479106012699E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>2.63598134633658E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>2.5722619407944999E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>2.4883138877659101E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>2.4385800479047901E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>2.33446602290097E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>2.3415546943154099E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>2.1980545371999699E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>2.1011257281297799E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>2.09757443927082E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>2.03359047718564E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>1.98792090386684E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>1.9218000401706199E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>1.8347989237542401E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>1.7903704148023499E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>1.6886654411302601E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>1.6395876196883999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>1.5592685912409501E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>1.50853035476888E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>1.4559014679315601E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>1.3818945578292999E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>1.32487932705781E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>1.26087079141104E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>1.21571872260579E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>1.1699532822878901E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>1.11458024128881E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>1.0831273173761599E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>1.04836828510213E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>1.0002763908099699E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>9.5446494445116103E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>9.2087996418636006E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>8.8769486142987308E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>8.7831005051856297E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>8.19950157698408E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>8.1321036153668407E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>7.5715277029512196E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>7.4288701637007003E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>7.1360154618933403E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>6.8521201112060198E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>6.5254348454705001E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>6.3224954647467298E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>6.1178238353623302E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>5.7279613221757801E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>5.38199458940834E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>5.0767610896277201E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>4.9640522727656599E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>4.7521532515681399E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>4.5884431381848396E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>4.3652125531478299E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>4.2127315801958999E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>4.1101090684787399E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>3.9126450145569999E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>3.5935814732600802E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>3.4147226628090999E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>3.2642734936007499E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>3.0715829766655698E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>2.8327118944623101E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>2.6560157753650602E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>2.5032856227103798E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>2.3646397884751901E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>2.2835302290466599E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>2.0349065813997E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>1.8944111102177699E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>1.76746246159545E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>1.60737981542192E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>1.49911186978213E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>1.3305420200259801E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>1.2362205505540599E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>1.1478756074323701E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>1.08478406495294E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>1.0127239214770801E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>234</v>
+      </c>
+      <c r="B234" s="1">
+        <v>9.1287552927434999E-4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>235</v>
+      </c>
+      <c r="B235" s="1">
+        <v>8.1406311883807595E-4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>236</v>
+      </c>
+      <c r="B236" s="1">
+        <v>7.2568235350348404E-4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>237</v>
+      </c>
+      <c r="B237" s="1">
+        <v>6.6571715593345595E-4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>238</v>
+      </c>
+      <c r="B238" s="1">
+        <v>6.1425264669990004E-4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>239</v>
+      </c>
+      <c r="B239" s="1">
+        <v>5.5059364706942998E-4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>240</v>
+      </c>
+      <c r="B240" s="1">
+        <v>4.91178751675945E-4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>241</v>
+      </c>
+      <c r="B241" s="1">
+        <v>4.2072711721781599E-4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>242</v>
+      </c>
+      <c r="B242" s="1">
+        <v>3.67735569127319E-4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>243</v>
+      </c>
+      <c r="B243" s="1">
+        <v>3.3596830481841402E-4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>244</v>
+      </c>
+      <c r="B244" s="1">
+        <v>3.0510021355878702E-4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>245</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2.7346247290092798E-4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>246</v>
+      </c>
+      <c r="B246" s="1">
+        <v>2.4057270664870601E-4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>247</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2.1028744437775001E-4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>248</v>
+      </c>
+      <c r="B248" s="1">
+        <v>1.7148292503842301E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>249</v>
+      </c>
+      <c r="B249" s="1">
+        <v>1.3674840644325401E-4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>250</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1.0943659619057599E-4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>251</v>
+      </c>
+      <c r="B251" s="1">
+        <v>7.6747657927346002E-5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>252</v>
+      </c>
+      <c r="B252" s="1">
+        <v>5.2746213346769497E-5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>253</v>
+      </c>
+      <c r="B253" s="1">
+        <v>4.2689773039588597E-5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>254</v>
+      </c>
+      <c r="B254" s="1">
+        <v>2.5965726412375699E-5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>255</v>
+      </c>
+      <c r="B255" s="1">
+        <v>1.04296049138161E-5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>256</v>
+      </c>
+      <c r="B256" s="1">
+        <v>3.6965093720583701E-6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>257</v>
+      </c>
+      <c r="B257" s="1">
+        <v>7.1256263056209099E-7</v>
       </c>
     </row>
   </sheetData>
